--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_极光组.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_极光组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="13650" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="13650" tabRatio="787" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1170,6 +1169,21 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1196,21 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1656,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6009,8 +6008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -6089,46 +6088,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="104" customFormat="1" ht="30" customHeight="1">
+    <row r="2" spans="1:18" s="95" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="34"/>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101" t="s">
+      <c r="K2" s="92"/>
+      <c r="L2" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="103" t="s">
+      <c r="M2" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="101" t="s">
+      <c r="N2" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="102" t="s">
+      <c r="O2" s="93" t="s">
         <v>113</v>
       </c>
       <c r="P2" s="43"/>
@@ -6202,19 +6201,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6252,8 +6251,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6265,8 +6264,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6278,8 +6277,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6291,8 +6290,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6304,8 +6303,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6317,8 +6316,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6330,8 +6329,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6343,8 +6342,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6405,36 +6404,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6719,36 +6718,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7033,36 +7032,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7349,36 +7348,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
